--- a/StatResumen.xlsx
+++ b/StatResumen.xlsx
@@ -428,7 +428,7 @@
         <v>0.9975995740846659</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9975995740846659</v>
+        <v>0.9582570735978276</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>0.992836612661964</v>
       </c>
       <c r="H3" t="n">
-        <v>0.992836612661964</v>
+        <v>0.9827419798443024</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.9859501308811576</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9859501308811576</v>
+        <v>0.9715574481031654</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.9821111766365874</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9821111766365874</v>
+        <v>0.9728212907270016</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         <v>0.9981303322779386</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9981303322779386</v>
+        <v>0.9950096102339344</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +568,7 @@
         <v>0.9915090444926469</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9915090444926469</v>
+        <v>0.9925811854932376</v>
       </c>
     </row>
     <row r="8">
@@ -596,7 +596,7 @@
         <v>0.98987005581976</v>
       </c>
       <c r="H8" t="n">
-        <v>0.98987005581976</v>
+        <v>0.9901437181386964</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +624,7 @@
         <v>0.9815054241632593</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9815054241632593</v>
+        <v>0.967974364941705</v>
       </c>
     </row>
     <row r="10">
@@ -652,7 +652,7 @@
         <v>0.9863492737145072</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9863492737145072</v>
+        <v>0.9754348467911776</v>
       </c>
     </row>
     <row r="11">
@@ -680,7 +680,7 @@
         <v>0.9855286834158966</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9855286834158966</v>
+        <v>0.979968699987002</v>
       </c>
     </row>
     <row r="12">
@@ -708,7 +708,7 @@
         <v>0.9940398279506124</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9940398279506124</v>
+        <v>0.9797146624897596</v>
       </c>
     </row>
     <row r="13">
@@ -736,7 +736,7 @@
         <v>0.9861400583614138</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9861400583614138</v>
+        <v>0.9805219512418668</v>
       </c>
     </row>
     <row r="14">
@@ -764,7 +764,7 @@
         <v>0.9910825624749334</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9910825624749334</v>
+        <v>0.9895935893685476</v>
       </c>
     </row>
     <row r="15">
@@ -792,7 +792,7 @@
         <v>0.9859934689354614</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9859934689354614</v>
+        <v>0.9797503446186224</v>
       </c>
     </row>
     <row r="16">
@@ -820,7 +820,7 @@
         <v>0.9897826575317976</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9897826575317976</v>
+        <v>0.9903146837988632</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +848,7 @@
         <v>0.988127592325764</v>
       </c>
       <c r="H17" t="n">
-        <v>0.988127592325764</v>
+        <v>0.9893841371718142</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +876,7 @@
         <v>0.9925348953532732</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9925348953532732</v>
+        <v>0.993321486014085</v>
       </c>
     </row>
     <row r="19">
@@ -904,7 +904,7 @@
         <v>0.9943136110020641</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9943136110020641</v>
+        <v>0.9917409218714422</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         <v>0.9882388621902856</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9882388621902856</v>
+        <v>0.9889698255687371</v>
       </c>
     </row>
     <row r="21">
@@ -960,7 +960,7 @@
         <v>0.9866737845077076</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9866737845077076</v>
+        <v>0.9824705522103464</v>
       </c>
     </row>
     <row r="22">
@@ -988,7 +988,7 @@
         <v>0.9910590033521244</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9910590033521244</v>
+        <v>0.9719189538495292</v>
       </c>
     </row>
     <row r="23">
@@ -1016,7 +1016,7 @@
         <v>0.982720812181798</v>
       </c>
       <c r="H23" t="n">
-        <v>0.982720812181798</v>
+        <v>0.9796572183471368</v>
       </c>
     </row>
     <row r="24">
@@ -1044,7 +1044,7 @@
         <v>0.9958369365937386</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9958369365937386</v>
+        <v>0.9932146331997648</v>
       </c>
     </row>
     <row r="25">
@@ -1072,7 +1072,7 @@
         <v>0.9833637354367876</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9833637354367876</v>
+        <v>0.9752412125336879</v>
       </c>
     </row>
     <row r="26">
@@ -1100,7 +1100,7 @@
         <v>0.9843326088057479</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9843326088057479</v>
+        <v>0.9731835759672304</v>
       </c>
     </row>
     <row r="27">
@@ -1128,7 +1128,7 @@
         <v>0.9871049098719362</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9871049098719362</v>
+        <v>0.9703291034398236</v>
       </c>
     </row>
     <row r="28">
@@ -1156,7 +1156,7 @@
         <v>0.9879735220763394</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9879735220763394</v>
+        <v>0.9890409554722136</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
         <v>0.9958092747733622</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9958092747733622</v>
+        <v>0.9935363480615022</v>
       </c>
     </row>
     <row r="30">
@@ -1212,7 +1212,7 @@
         <v>0.9902469633147988</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9902469633147988</v>
+        <v>0.99193896896443</v>
       </c>
     </row>
     <row r="31">
@@ -1240,7 +1240,7 @@
         <v>0.9965018527093374</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9965018527093374</v>
+        <v>0.9949273781190602</v>
       </c>
     </row>
     <row r="32">
@@ -1268,7 +1268,7 @@
         <v>0.9840849388138032</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9840849388138032</v>
+        <v>0.9859663665261184</v>
       </c>
     </row>
     <row r="33">
@@ -1296,7 +1296,7 @@
         <v>0.99293162072756</v>
       </c>
       <c r="H33" t="n">
-        <v>0.99293162072756</v>
+        <v>0.9935082148459042</v>
       </c>
     </row>
     <row r="34">
@@ -1324,7 +1324,7 @@
         <v>0.9667813180237416</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9667813180237416</v>
+        <v>0.9652759522460496</v>
       </c>
     </row>
     <row r="35">
@@ -1352,7 +1352,7 @@
         <v>0.9921938351569776</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9921938351569776</v>
+        <v>0.9891604105110312</v>
       </c>
     </row>
     <row r="36">
@@ -1380,7 +1380,7 @@
         <v>0.9893334920263044</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9893334920263044</v>
+        <v>0.9836366128429104</v>
       </c>
     </row>
     <row r="37">
@@ -1408,7 +1408,7 @@
         <v>0.9826980671915037</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9826980671915037</v>
+        <v>0.979645530334638</v>
       </c>
     </row>
   </sheetData>
